--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00006.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00006.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP02PMUI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="6300" windowWidth="21480" windowHeight="11240" tabRatio="377"/>
+    <workbookView xWindow="13035" yWindow="6300" windowWidth="21480" windowHeight="11235" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$97</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$406</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -244,7 +249,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -544,8 +549,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -657,6 +662,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -951,25 +959,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1025,9 @@
       <c r="D2" s="4">
         <v>42293</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11">
+        <v>6.25E-2</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
         <v>53</v>
@@ -1041,7 +1051,7 @@
         <v>-70.769533333333328</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -1060,22 +1070,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -1119,7 +1129,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
@@ -1141,7 +1151,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -1163,7 +1173,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1173,7 +1183,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>38</v>
       </c>
@@ -1191,10 +1201,10 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="28"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1226,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1248,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1270,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1292,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1314,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1336,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1358,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1380,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1380,7 +1390,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1412,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1424,7 +1434,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1434,7 +1444,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -1456,7 +1466,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -1478,7 +1488,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1488,7 +1498,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1512,7 +1522,7 @@
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1544,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1566,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1588,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +1612,7 @@
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1636,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1658,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1680,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -1692,7 +1702,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>28</v>
       </c>
@@ -1716,7 +1726,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1726,7 +1736,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1758,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
@@ -1770,7 +1780,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1780,7 +1790,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
@@ -1798,10 +1808,10 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="28"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>45</v>
       </c>
@@ -1819,7 +1829,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
